--- a/inputfiles/mockMaterials/allPrimers.xlsx
+++ b/inputfiles/mockMaterials/allPrimers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,6 @@
           <t>VAL-R</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>problemPrimerType</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -504,11 +499,6 @@
           <t>AAACATTGCCGCGTTCTACG</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>AATCGCTGCGATGGGAGATAG</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -544,7 +534,6 @@
           <t>GCTGCTGTCACTCGAACAAG</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -580,7 +569,6 @@
           <t>TCAGTTTAATGTCCTCAATGTATGC</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -616,7 +604,6 @@
           <t>TTTTGCAGCAGCTTCATCGC</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -652,7 +639,6 @@
           <t>GGGGAACTCCTTCGTAGGTG</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -688,7 +674,6 @@
           <t>TGTAAGGCCGTACATTATAGGG</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
